--- a/cellplans/unefon.xlsx
+++ b/cellplans/unefon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="-100" yWindow="360" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Postpago" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="145">
   <si>
     <t>Compañía</t>
   </si>
@@ -41,24 +41,12 @@
     <t>Modalidad de Cobro</t>
   </si>
   <si>
-    <t>Minutos incluidos indistintos Locales</t>
-  </si>
-  <si>
     <t>Minutos Incluidos a la Misma Compañía</t>
   </si>
   <si>
-    <t>Minutos Incluidos a Otras Compañías</t>
-  </si>
-  <si>
-    <t>Segundos incluidos indistintos Locales</t>
-  </si>
-  <si>
     <t>Segundos Incluidos a la Misma Compañía</t>
   </si>
   <si>
-    <t>Segundos Incluidos a Otras Compañías</t>
-  </si>
-  <si>
     <t>Números para llamar Gratis a la Misma Compañía</t>
   </si>
   <si>
@@ -74,31 +62,7 @@
     <t>Radio o Push-to-Talk</t>
   </si>
   <si>
-    <t>Costo por Minuto indistinto adicional (Nacional)</t>
-  </si>
-  <si>
-    <t>Costo por Minuto indistinto adicional (Local)</t>
-  </si>
-  <si>
-    <t>Costo por Minuto Adicional Misma Compañía</t>
-  </si>
-  <si>
-    <t>Costo por Minuto Adicional Otra Compañía</t>
-  </si>
-  <si>
     <t>Costo por Minuto Adicional a Números Fijos</t>
-  </si>
-  <si>
-    <t>Costo por Segundo indistinto adicional (Nacional)</t>
-  </si>
-  <si>
-    <t>Costo por Segundo indistinto adicional (Local)</t>
-  </si>
-  <si>
-    <t>Costo por Segundo Adicional Misma Compañía</t>
-  </si>
-  <si>
-    <t>Costo por Segundo Adicional Otra Compañía</t>
   </si>
   <si>
     <t>Costo por Segundo Adicional a Números Fijos</t>
@@ -300,18 +264,6 @@
     <t>Vigencia de las Recargas</t>
   </si>
   <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a cualquier destino nacional Nacional</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a número local</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a números misma Compañía</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a números Otras Compañías</t>
-  </si>
-  <si>
     <t>Rango/Nivel 1 de Recarga Mensual (o Tarifa Base)</t>
   </si>
   <si>
@@ -342,16 +294,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Minuto</t>
-  </si>
-  <si>
     <t>500 MB</t>
-  </si>
-  <si>
-    <t>Minutos incluidos indistintos todo Destino</t>
-  </si>
-  <si>
-    <t>Segundos incluidos indistintos todo Destino</t>
   </si>
   <si>
     <t>Prepago</t>
@@ -576,6 +519,63 @@
   </si>
   <si>
     <t>Saldo Total Recibido</t>
+  </si>
+  <si>
+    <t>Obtén un SAMSUNG GALAXY Y De $1,999 a $1,799, IVA incluido.                              Obtén un SAMSUNG GALAXY SS CHAT de  $1,4999.00 a $999.00, IVA Incluido.              Obtén un GALAXY ACE de $3,799 a $2,999, IVA Incluido. En todos los casos Promocion Valida del 01 al 30 de Junio. En todos los casos 200.00 de dinero Electronico.</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional a Números de la Misma Compañía</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional a Números de Otras Compañías</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional a Números de la Misma Compañía</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional a Números de Otras Compañías</t>
+  </si>
+  <si>
+    <t>Por Minuto</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a Cualquier Compañía Local</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a Cualquier Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a la Misma Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Minutos Incluidos a Cualquier Compañía Locales</t>
+  </si>
+  <si>
+    <t>Minutos Incluidos a Cualquier Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Segundos Incluidos a Cualquier Compañía Locales</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional Cualquier Número Nacional</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional Cualquier Número Local</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional Cualquier Número Nacional</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional Cualquier Número Local</t>
+  </si>
+  <si>
+    <t>Costo por Minuto de Larga Distancia Nacional</t>
+  </si>
+  <si>
+    <t>Costo por minuto de LD Internacional (EU y Canadá)</t>
+  </si>
+  <si>
+    <t>Segundos Incluidos a Cualquier Compañía Todo Destino</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +725,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -735,7 +741,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1546">
+  <cellStyleXfs count="1580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2282,8 +2288,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2323,7 +2363,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1533" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1533"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1533" applyFont="1" applyAlignment="1">
@@ -2336,8 +2375,14 @@
     <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="1533" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1533" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1533" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1546">
+  <cellStyles count="1580">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
@@ -3109,6 +3154,23 @@
     <cellStyle name="Hipervínculo" xfId="1540" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="1542" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1578" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
@@ -3880,6 +3942,23 @@
     <cellStyle name="Hipervínculo visitado" xfId="1541" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="1543" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="1579" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda" xfId="1242" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4329,11 +4408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:XFD12"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4349,34 +4428,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4384,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" s="13"/>
       <c r="E2" s="7"/>
@@ -4400,34 +4479,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="70">
@@ -4435,77 +4514,77 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1">
-      <c r="A6" s="24" t="s">
-        <v>115</v>
+      <c r="A6" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" s="19">
         <v>50</v>
@@ -4536,116 +4615,116 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1">
+      <c r="A9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1">
-      <c r="A9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="B10" s="24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20">
         <v>50</v>
@@ -4676,332 +4755,332 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1">
+      <c r="A12" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1">
+      <c r="A14" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="21">
+        <v>25</v>
+      </c>
+      <c r="D14" s="21">
+        <v>35</v>
+      </c>
+      <c r="E14" s="21">
+        <v>50</v>
+      </c>
+      <c r="F14" s="21">
+        <v>60</v>
+      </c>
+      <c r="G14" s="21">
+        <v>70</v>
+      </c>
+      <c r="H14" s="21">
+        <v>80</v>
+      </c>
+      <c r="I14" s="21">
+        <v>90</v>
+      </c>
+      <c r="J14" s="21">
+        <v>100</v>
+      </c>
+      <c r="K14" s="21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1">
+      <c r="A15" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="21">
+        <v>25</v>
+      </c>
+      <c r="D15" s="21">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21">
+        <v>50</v>
+      </c>
+      <c r="F15" s="21">
+        <v>60</v>
+      </c>
+      <c r="G15" s="21">
+        <v>70</v>
+      </c>
+      <c r="H15" s="21">
+        <v>80</v>
+      </c>
+      <c r="I15" s="21">
+        <v>90</v>
+      </c>
+      <c r="J15" s="21">
+        <v>100</v>
+      </c>
+      <c r="K15" s="21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1">
+      <c r="A16" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F17" s="20">
         <v>0</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G17" s="20">
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H17" s="20">
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I17" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J17" s="20">
         <v>0</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K17" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="24" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1">
-      <c r="A13" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="24" t="s">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="24" t="s">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1">
-      <c r="A16" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="21">
-        <v>25</v>
-      </c>
-      <c r="D16" s="21">
-        <v>35</v>
-      </c>
-      <c r="E16" s="21">
-        <v>50</v>
-      </c>
-      <c r="F16" s="21">
-        <v>60</v>
-      </c>
-      <c r="G16" s="21">
-        <v>70</v>
-      </c>
-      <c r="H16" s="21">
-        <v>80</v>
-      </c>
-      <c r="I16" s="21">
-        <v>90</v>
-      </c>
-      <c r="J16" s="21">
-        <v>100</v>
-      </c>
-      <c r="K16" s="21">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1">
-      <c r="A17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="21">
-        <v>25</v>
-      </c>
-      <c r="D17" s="21">
-        <v>35</v>
-      </c>
-      <c r="E17" s="21">
-        <v>50</v>
-      </c>
-      <c r="F17" s="21">
-        <v>60</v>
-      </c>
-      <c r="G17" s="21">
-        <v>70</v>
-      </c>
-      <c r="H17" s="21">
-        <v>80</v>
-      </c>
-      <c r="I17" s="21">
-        <v>90</v>
-      </c>
-      <c r="J17" s="21">
-        <v>100</v>
-      </c>
-      <c r="K17" s="21">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1">
-      <c r="A18" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1">
-      <c r="A19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>98</v>
@@ -5010,789 +5089,754 @@
         <v>98</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="8" t="s">
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1">
+      <c r="A27" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1">
+      <c r="A28" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="8" t="s">
+      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="20" t="s">
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1">
+      <c r="A36" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" ht="409">
+      <c r="A38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="409">
+      <c r="A40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="I25" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="J25" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="K25" s="21">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="J26" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="K26" s="21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8" t="s">
+      <c r="I40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="K27" s="21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="J28" s="21">
-        <v>1.98</v>
-      </c>
-      <c r="K28" s="21">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="J29" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" ht="409">
-      <c r="A39" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1">
-      <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="409">
-      <c r="A41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>98</v>
+      <c r="C41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5811,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5830,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E1" s="9"/>
     </row>
@@ -5843,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="9"/>
@@ -5854,59 +5898,59 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20">
         <v>0</v>
@@ -5915,10 +5959,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -5928,10 +5972,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" s="20">
         <v>0</v>
@@ -5941,23 +5985,23 @@
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" s="21">
         <v>1.98</v>
@@ -5967,10 +6011,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D12" s="21">
         <v>1.98</v>
@@ -5980,49 +6024,49 @@
     <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10"/>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D16" s="21">
         <v>150</v>
@@ -6032,23 +6076,23 @@
     <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -6057,10 +6101,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -6069,10 +6113,10 @@
     <row r="20" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D20" s="20">
         <v>0</v>
@@ -6081,22 +6125,22 @@
     <row r="21" spans="1:5">
       <c r="A21" s="10"/>
       <c r="B21" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10"/>
       <c r="B22" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21">
         <v>0.85</v>
@@ -6105,10 +6149,10 @@
     <row r="23" spans="1:5">
       <c r="A23" s="10"/>
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D23" s="21">
         <v>0.85</v>
@@ -6117,70 +6161,70 @@
     <row r="24" spans="1:5">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10"/>
       <c r="B28" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1">
       <c r="A29" s="10"/>
       <c r="B29" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
@@ -6189,10 +6233,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -6201,10 +6245,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="10"/>
       <c r="B31" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
@@ -6213,22 +6257,22 @@
     <row r="32" spans="1:5">
       <c r="A32" s="10"/>
       <c r="B32" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="9" customFormat="1">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D33" s="21">
         <v>0.75</v>
@@ -6237,10 +6281,10 @@
     <row r="34" spans="1:5" s="9" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D34" s="21">
         <v>0.75</v>
@@ -6249,239 +6293,239 @@
     <row r="35" spans="1:5">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10"/>
       <c r="B41" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="10"/>
       <c r="B42" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="10"/>
       <c r="B43" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="9" customFormat="1">
       <c r="A45" s="10"/>
       <c r="B45" s="12" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1">
       <c r="A49" s="10"/>
       <c r="B49" s="15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1" ht="168">
       <c r="A50" s="10"/>
       <c r="B50" s="16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="140">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="126">
       <c r="B53" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -6507,59 +6551,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="27" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="27"/>
-    <col min="13" max="13" width="11.5" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="31.83203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="26" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="26"/>
+    <col min="13" max="13" width="11.5" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>105</v>
+      <c r="B1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6568,449 +6612,449 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="30">
         <v>10</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>20</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>30</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>50</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>60</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>100</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>120</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <v>150</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <v>200</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>300</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <v>500</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="A7" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="31">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>20</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>30</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>50</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="31">
         <v>100</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="I7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="31">
         <v>150</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>200</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <v>300</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>500</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="31">
         <v>10</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>20</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>30</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>50</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="G8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="31">
         <v>100</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="32">
+      <c r="I8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="31">
         <v>150</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>200</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>300</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>500</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="A9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="31">
         <f>+C8-C7</f>
         <v>0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <f t="shared" ref="D9:N9" si="0">+D8-D7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>0</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>99</v>
+      <c r="A10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>137</v>
+      <c r="A11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>98</v>
+      <c r="A12" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>98</v>
+      <c r="A13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>98</v>
+      <c r="A14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
